--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF6D8E-D5A5-484C-B0F3-29A6E0606A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63AB22-F303-4E3C-936F-321E8B395F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>배열과 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>의미 없</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD987C9-B30F-4EA6-9C2E-C5D44B61BC5F}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1041,7 +1049,7 @@
       <c r="A19">
         <v>66</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1414</v>
       </c>
     </row>
@@ -1052,6 +1060,9 @@
       <c r="B20">
         <v>1427</v>
       </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
       <c r="J20">
         <v>37</v>
       </c>
@@ -1067,7 +1078,7 @@
       <c r="A21">
         <v>38</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>1456</v>
       </c>
       <c r="I21">
@@ -1090,7 +1101,7 @@
       <c r="A22">
         <v>84</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1463</v>
       </c>
       <c r="C22" t="s">
@@ -1112,7 +1123,7 @@
       <c r="A23">
         <v>54</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1516</v>
       </c>
       <c r="I23">
@@ -1134,13 +1145,19 @@
       <c r="B24">
         <v>1517</v>
       </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>36</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1541</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
@@ -1155,7 +1172,7 @@
       <c r="A27">
         <v>48</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1707</v>
       </c>
       <c r="J27">
@@ -1169,7 +1186,7 @@
       <c r="A28">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1715</v>
       </c>
       <c r="I28">
@@ -1188,7 +1205,7 @@
       <c r="A29">
         <v>50</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1717</v>
       </c>
       <c r="C29" t="s">
@@ -1210,7 +1227,7 @@
       <c r="A30">
         <v>81</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>1722</v>
       </c>
       <c r="I30">
@@ -1229,8 +1246,11 @@
       <c r="A31">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>1744</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">

--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63AB22-F303-4E3C-936F-321E8B395F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE57C7-7F9C-4AFB-B256-53B8E36908FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1257,15 +1257,18 @@
       <c r="A32">
         <v>39</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1747</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44720</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>56</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1753</v>
       </c>
       <c r="C33" t="s">
@@ -1276,7 +1279,7 @@
       <c r="A34">
         <v>43</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1850</v>
       </c>
       <c r="K34" t="s">
@@ -1287,7 +1290,7 @@
       <c r="A35">
         <v>58</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1854</v>
       </c>
     </row>
@@ -1295,7 +1298,7 @@
       <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>1874</v>
       </c>
       <c r="C36" t="s">
@@ -1306,7 +1309,7 @@
       <c r="A37">
         <v>91</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1915</v>
       </c>
     </row>
@@ -1314,7 +1317,7 @@
       <c r="A38">
         <v>57</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1916</v>
       </c>
     </row>
@@ -1322,7 +1325,7 @@
       <c r="A39">
         <v>29</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>1920</v>
       </c>
       <c r="C39" t="s">
@@ -1333,7 +1336,7 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1929</v>
       </c>
       <c r="C40" t="s">
@@ -1344,7 +1347,7 @@
       <c r="A41">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1931</v>
       </c>
     </row>
@@ -1352,7 +1355,7 @@
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1934</v>
       </c>
       <c r="C42" t="s">
@@ -1363,7 +1366,7 @@
       <c r="A43">
         <v>7</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>1940</v>
       </c>
     </row>

--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE57C7-7F9C-4AFB-B256-53B8E36908FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D730CE-7BC9-4FC3-B321-5F30B1E0B558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>배열과 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD987C9-B30F-4EA6-9C2E-C5D44B61BC5F}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1374,15 +1374,18 @@
       <c r="A44">
         <v>83</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1947</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44722</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>1948</v>
       </c>
     </row>
@@ -1390,7 +1393,7 @@
       <c r="A46">
         <v>51</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1976</v>
       </c>
     </row>
@@ -1404,6 +1407,9 @@
       <c r="C47" t="s">
         <v>23</v>
       </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
@@ -1420,7 +1426,7 @@
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>2023</v>
       </c>
     </row>
@@ -1428,7 +1434,7 @@
       <c r="A50">
         <v>71</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>2042</v>
       </c>
       <c r="C50" t="s">

--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D730CE-7BC9-4FC3-B321-5F30B1E0B558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FEDAD-D466-4F72-8C2A-044574D4B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>배열과 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD987C9-B30F-4EA6-9C2E-C5D44B61BC5F}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>24</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>71</v>
       </c>
@@ -1441,90 +1441,96 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>95</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>2098</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E51" s="3">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>99</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>2162</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>13</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>2164</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>100</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>2166</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>2178</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>86</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>2193</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>49</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>2251</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E57" s="3">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>53</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>2252</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>93</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>2342</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>30</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>2343</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>15</v>
       </c>
@@ -1534,48 +1540,54 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>20</v>
       </c>
       <c r="B62">
         <v>2751</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>78</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>2755</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>90</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>9252</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>88</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>10844</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>72</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>10868</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1583,53 +1595,56 @@
         <v>10986</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>22</v>
       </c>
       <c r="B68">
         <v>10989</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>11003</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>19</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>11004</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>32</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>11047</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>94</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>11049</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>76</v>
       </c>
@@ -1639,40 +1654,46 @@
       <c r="C73" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>11051</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>14</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>11286</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>18</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>11399</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>62</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>11403</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E77" s="3">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>61</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>74</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>75</v>
       </c>
@@ -1888,8 +1909,8 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>17837</v>
+      <c r="B100" s="1">
+        <v>17387</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">

--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8FEDAD-D466-4F72-8C2A-044574D4B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4557FD99-FF9F-4CA4-B892-1BBBDE8F86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>배열과 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD987C9-B30F-4EA6-9C2E-C5D44B61BC5F}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1697,7 +1697,7 @@
       <c r="A78">
         <v>61</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>11404</v>
       </c>
       <c r="C78" t="s">
@@ -1708,7 +1708,7 @@
       <c r="A79">
         <v>74</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>11437</v>
       </c>
       <c r="C79" t="s">
@@ -1719,30 +1719,30 @@
       <c r="A80">
         <v>75</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>11438</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>73</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>11505</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>59</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>11657</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>11660</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>41</v>
       </c>
@@ -1774,8 +1774,11 @@
       <c r="C85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1</v>
       </c>
@@ -1786,18 +1789,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>23</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>11724</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>67</v>
       </c>
@@ -1807,38 +1810,41 @@
       <c r="C88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>11726</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>97</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>11758</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>12891</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>25</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>80</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>13251</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>89</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>13398</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>96</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>69</v>
       </c>

--- a/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
+++ b/Do it 알고리즘 코딩 테스트 수록 문제 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlswo\Desktop\백준\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4557FD99-FF9F-4CA4-B892-1BBBDE8F86C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C36AFB0-652C-4354-B77A-53A23E0C2919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DC13400-40E1-4523-AB54-7E09C29F08D6}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD987C9-B30F-4EA6-9C2E-C5D44B61BC5F}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1848,7 +1848,7 @@
       <c r="A92">
         <v>25</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>13023</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       <c r="A93">
         <v>80</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>13251</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       <c r="A94">
         <v>89</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>13398</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       <c r="A95">
         <v>96</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>14003</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       <c r="A96">
         <v>69</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>14425</v>
       </c>
       <c r="C96" t="s">
@@ -1891,7 +1891,7 @@
       <c r="A97">
         <v>85</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>14501</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       <c r="A98">
         <v>12</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>17298</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="A101">
         <v>46</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>18352</v>
       </c>
       <c r="C101" t="s">
@@ -1934,7 +1934,7 @@
       <c r="A102">
         <v>45</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>21568</v>
       </c>
     </row>
